--- a/2.3/Output_data_posian.xlsx
+++ b/2.3/Output_data_posian.xlsx
@@ -59,32 +59,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="true"/>
-    <col min="2" max="2" width="15.21875" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-1.0482643718859737</v>
+        <v>1.0517356281140262</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.0077650567545249766</v>
+        <v>-0.0077650567545250269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0022669246207761779</v>
+        <v>1.0522669246207759</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.013147030292568052</v>
+        <v>-0.013147030292568041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0023537846053151659</v>
+        <v>1.0476462153946848</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.00033770054796321118</v>
+        <v>-0.00033770054796328501</v>
       </c>
     </row>
     <row r="4">
